--- a/2018-01-excel/workshopFeedback.xlsx
+++ b/2018-01-excel/workshopFeedback.xlsx
@@ -20,9 +20,9 @@
     <sheet name="UsefulnessRatings" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlcn.WorksheetConnection_workshopFeedback.xlsxFeedbackForms" hidden="1">FeedbackForms[]</definedName>
-    <definedName name="_xlcn.WorksheetConnection_workshopFeedback.xlsxUsefulnessRatings" hidden="1">UsefulnessRatings[]</definedName>
-    <definedName name="_xlcn.WorksheetConnection_workshopFeedback.xlsxWorkshopStats" hidden="1">WorkshopStats[]</definedName>
+    <definedName name="_xlcn.WorksheetConnection_workshopFeedback.xlsxFeedbackForms1" hidden="1">FeedbackForms[]</definedName>
+    <definedName name="_xlcn.WorksheetConnection_workshopFeedback.xlsxUsefulnessRatings1" hidden="1">UsefulnessRatings[]</definedName>
+    <definedName name="_xlcn.WorksheetConnection_workshopFeedback.xlsxWorkshopStats1" hidden="1">WorkshopStats[]</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <pivotCaches>
@@ -64,7 +64,7 @@
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
         <x15:connection id="FeedbackForms">
-          <x15:rangePr sourceName="_xlcn.WorksheetConnection_workshopFeedback.xlsxFeedbackForms"/>
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_workshopFeedback.xlsxFeedbackForms1"/>
         </x15:connection>
       </ext>
     </extLst>
@@ -73,7 +73,7 @@
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
         <x15:connection id="UsefulnessRatings">
-          <x15:rangePr sourceName="_xlcn.WorksheetConnection_workshopFeedback.xlsxUsefulnessRatings"/>
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_workshopFeedback.xlsxUsefulnessRatings1"/>
         </x15:connection>
       </ext>
     </extLst>
@@ -82,7 +82,7 @@
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
         <x15:connection id="WorkshopStats">
-          <x15:rangePr sourceName="_xlcn.WorksheetConnection_workshopFeedback.xlsxWorkshopStats"/>
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_workshopFeedback.xlsxWorkshopStats1"/>
         </x15:connection>
       </ext>
     </extLst>
@@ -91,7 +91,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="93">
   <si>
     <t>Department</t>
   </si>
@@ -361,6 +361,15 @@
   </si>
   <si>
     <t>Gaining experience with Excel.  Also learning some shortcuts to help me with ways I use Excel every day.</t>
+  </si>
+  <si>
+    <t>Finance</t>
+  </si>
+  <si>
+    <t>How to create; Merge; 3D maps</t>
+  </si>
+  <si>
+    <t>Very insightful presesntation.  I will just need to see if I can incorporate the information learned into my daily duties.</t>
   </si>
 </sst>
 </file>
@@ -873,7 +882,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>21</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>3</c:v>
@@ -1138,9 +1147,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Feedback_DepartmentDivisions!$A$2:$A$16</c:f>
+              <c:f>Feedback_DepartmentDivisions!$A$2:$A$17</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:lvl>
                   <c:pt idx="1">
                     <c:v>Building</c:v>
@@ -1158,12 +1167,15 @@
                     <c:v>Clerks</c:v>
                   </c:pt>
                   <c:pt idx="6">
+                    <c:v>Finance</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
                     <c:v>Administration</c:v>
                   </c:pt>
-                  <c:pt idx="7">
+                  <c:pt idx="8">
                     <c:v>EMS</c:v>
                   </c:pt>
-                  <c:pt idx="9">
+                  <c:pt idx="10">
                     <c:v>Provincial Offences</c:v>
                   </c:pt>
                 </c:lvl>
@@ -1177,13 +1189,13 @@
                   <c:pt idx="5">
                     <c:v>Corporate Services</c:v>
                   </c:pt>
-                  <c:pt idx="6">
+                  <c:pt idx="7">
                     <c:v>Fire Services</c:v>
                   </c:pt>
-                  <c:pt idx="8">
+                  <c:pt idx="9">
                     <c:v>Mayor's Office</c:v>
                   </c:pt>
-                  <c:pt idx="9">
+                  <c:pt idx="10">
                     <c:v>Legal Department</c:v>
                   </c:pt>
                 </c:lvl>
@@ -1192,10 +1204,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Feedback_DepartmentDivisions!$B$2:$B$16</c:f>
+              <c:f>Feedback_DepartmentDivisions!$B$2:$B$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1203,7 +1215,7 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>3</c:v>
@@ -1218,12 +1230,15 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -1622,7 +1637,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>20</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1675,7 +1690,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>19</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1728,7 +1743,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>8</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3740,7 +3755,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Dan Gowans" refreshedDate="43112.656026041666" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="28">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Dan Gowans" refreshedDate="43115.357317708331" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="30">
   <cacheSource type="worksheet">
     <worksheetSource name="FeedbackForms"/>
   </cacheSource>
@@ -3765,7 +3780,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Division" numFmtId="0">
-      <sharedItems containsBlank="1" count="9">
+      <sharedItems containsBlank="1" count="10">
         <m/>
         <s v="Community Services / Recreation and Culture"/>
         <s v="Community Services / Transit and Parking"/>
@@ -3774,6 +3789,7 @@
         <s v="Building"/>
         <s v="Planning and Enterprise Services"/>
         <s v="Administration"/>
+        <s v="Finance"/>
         <s v="Provincial Offences"/>
       </sharedItems>
     </cacheField>
@@ -3819,7 +3835,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="28">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="30">
   <r>
     <x v="0"/>
     <x v="0"/>
@@ -4172,12 +4188,12 @@
   </r>
   <r>
     <x v="3"/>
-    <x v="5"/>
-    <x v="8"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="0"/>
     <n v="1"/>
-    <s v="Presentation was everything.  The entire workshop was useful to me."/>
-    <s v="Need more time."/>
+    <s v="Hands on; Very organized; Always learning more on Excel is positive."/>
+    <m/>
     <n v="1"/>
     <n v="1"/>
     <n v="0"/>
@@ -4190,9 +4206,9 @@
     <x v="1"/>
     <x v="0"/>
     <n v="1"/>
-    <s v="Hands on; Very organized; Always learning more on Excel is positive."/>
+    <s v="Very insightful presesntation.  I will just need to see if I can incorporate the information learned into my daily duties."/>
     <m/>
-    <n v="1"/>
+    <n v="0"/>
     <n v="1"/>
     <n v="0"/>
     <n v="0"/>
@@ -4208,6 +4224,34 @@
     <m/>
     <n v="1"/>
     <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="8"/>
+    <x v="0"/>
+    <n v="1"/>
+    <s v="How to create; Merge; 3D maps"/>
+    <m/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="0"/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="5"/>
+    <x v="9"/>
+    <x v="0"/>
+    <n v="1"/>
+    <s v="Presentation was everything.  The entire workshop was useful to me."/>
+    <s v="Need more time."/>
+    <n v="1"/>
+    <n v="1"/>
     <n v="0"/>
     <n v="0"/>
     <m/>
@@ -4344,7 +4388,7 @@
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="A1:B16" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <location ref="A1:B17" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField numFmtId="14" showAll="0"/>
     <pivotField axis="axisRow" dataField="1" showAll="0">
@@ -4360,15 +4404,16 @@
       </items>
     </pivotField>
     <pivotField axis="axisRow" showAll="0" sortType="ascending">
-      <items count="10">
+      <items count="11">
         <item x="7"/>
         <item x="5"/>
         <item x="3"/>
         <item x="1"/>
         <item x="2"/>
         <item x="4"/>
+        <item x="8"/>
         <item x="6"/>
-        <item x="8"/>
+        <item x="9"/>
         <item x="0"/>
         <item t="default"/>
       </items>
@@ -4387,7 +4432,7 @@
     <field x="1"/>
     <field x="2"/>
   </rowFields>
-  <rowItems count="15">
+  <rowItems count="16">
     <i>
       <x/>
     </i>
@@ -4404,13 +4449,16 @@
       <x v="4"/>
     </i>
     <i r="1">
-      <x v="6"/>
+      <x v="7"/>
     </i>
     <i>
       <x v="2"/>
     </i>
     <i r="1">
       <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
     </i>
     <i>
       <x v="3"/>
@@ -4428,7 +4476,7 @@
       <x v="6"/>
     </i>
     <i r="1">
-      <x v="7"/>
+      <x v="8"/>
     </i>
     <i t="grand">
       <x/>
@@ -4576,13 +4624,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="FeedbackForms" displayName="FeedbackForms" ref="A1:L29" totalsRowShown="0">
-  <autoFilter ref="A1:L29"/>
-  <sortState ref="A2:L29">
-    <sortCondition ref="A2:A29"/>
-    <sortCondition ref="B2:B29"/>
-    <sortCondition ref="C2:C29"/>
-    <sortCondition ref="E2:E29"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="FeedbackForms" displayName="FeedbackForms" ref="A1:L31" totalsRowShown="0">
+  <autoFilter ref="A1:L31"/>
+  <sortState ref="A2:L31">
+    <sortCondition ref="A2:A31"/>
+    <sortCondition ref="B2:B31"/>
+    <sortCondition ref="C2:C31"/>
+    <sortCondition ref="E2:E31"/>
   </sortState>
   <tableColumns count="12">
     <tableColumn id="1" name="Workshop Date" dataDxfId="5"/>
@@ -5145,7 +5193,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L29"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -6089,23 +6137,23 @@
         <v>13</v>
       </c>
       <c r="C28" t="s">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="D28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E28" s="5">
         <f>_xlfn.IFNA(VLOOKUP(FeedbackForms[[#This Row],[Usefulness]],UsefulnessRatings[],2,FALSE),"")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F28" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="H28" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" s="3">
         <v>0</v>
@@ -6119,34 +6167,100 @@
         <v>43112</v>
       </c>
       <c r="B29" t="s">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="C29" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="D29" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E29" s="5">
         <f>_xlfn.IFNA(VLOOKUP(FeedbackForms[[#This Row],[Usefulness]],UsefulnessRatings[],2,FALSE),"")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F29" t="s">
+        <v>89</v>
+      </c>
+      <c r="H29" s="3">
+        <v>1</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>43112</v>
+      </c>
+      <c r="B30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30" t="s">
+        <v>90</v>
+      </c>
+      <c r="D30" t="s">
+        <v>38</v>
+      </c>
+      <c r="E30" s="5">
+        <f>_xlfn.IFNA(VLOOKUP(FeedbackForms[[#This Row],[Usefulness]],UsefulnessRatings[],2,FALSE),"")</f>
+        <v>1</v>
+      </c>
+      <c r="F30" t="s">
+        <v>91</v>
+      </c>
+      <c r="H30" s="3">
+        <v>1</v>
+      </c>
+      <c r="I30" s="3">
+        <v>0</v>
+      </c>
+      <c r="J30" s="3">
+        <v>1</v>
+      </c>
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>43112</v>
+      </c>
+      <c r="B31" t="s">
+        <v>83</v>
+      </c>
+      <c r="C31" t="s">
+        <v>84</v>
+      </c>
+      <c r="D31" t="s">
+        <v>38</v>
+      </c>
+      <c r="E31" s="5">
+        <f>_xlfn.IFNA(VLOOKUP(FeedbackForms[[#This Row],[Usefulness]],UsefulnessRatings[],2,FALSE),"")</f>
+        <v>1</v>
+      </c>
+      <c r="F31" t="s">
         <v>85</v>
       </c>
-      <c r="G29" t="s">
+      <c r="G31" t="s">
         <v>86</v>
       </c>
-      <c r="H29" s="3">
-        <v>1</v>
-      </c>
-      <c r="I29" s="3">
-        <v>1</v>
-      </c>
-      <c r="J29" s="3">
-        <v>0</v>
-      </c>
-      <c r="K29" s="3">
+      <c r="H31" s="3">
+        <v>1</v>
+      </c>
+      <c r="I31" s="3">
+        <v>1</v>
+      </c>
+      <c r="J31" s="3">
+        <v>0</v>
+      </c>
+      <c r="K31" s="3">
         <v>0</v>
       </c>
     </row>
@@ -6159,7 +6273,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="3" id="{FEC0F689-AA24-4666-B45A-0A6FA090E788}">
+          <x14:cfRule type="iconSet" priority="4" id="{FEC0F689-AA24-4666-B45A-0A6FA090E788}">
             <x14:iconSet iconSet="4TrafficLights" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6179,7 +6293,7 @@
               <x14:cfIcon iconSet="3TrafficLights1" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>E2:E29</xm:sqref>
+          <xm:sqref>E2:E31</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -6222,7 +6336,7 @@
         <v>38</v>
       </c>
       <c r="B4" s="5">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -6246,7 +6360,7 @@
         <v>42</v>
       </c>
       <c r="B7" s="5">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -6257,7 +6371,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
@@ -6292,7 +6406,7 @@
         <v>13</v>
       </c>
       <c r="B3" s="5">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -6308,7 +6422,7 @@
         <v>14</v>
       </c>
       <c r="B5" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -6332,7 +6446,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -6344,59 +6458,67 @@
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>3</v>
+      <c r="A10" s="9" t="s">
+        <v>90</v>
       </c>
       <c r="B10" s="5">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
-        <v>54</v>
+      <c r="A11" s="6" t="s">
+        <v>3</v>
       </c>
       <c r="B11" s="5">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>4</v>
+        <v>54</v>
       </c>
       <c r="B12" s="5">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
-        <v>26</v>
+      <c r="A13" s="9" t="s">
+        <v>4</v>
       </c>
       <c r="B13" s="5">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>83</v>
+        <v>26</v>
       </c>
       <c r="B14" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
-        <v>84</v>
+      <c r="A15" s="6" t="s">
+        <v>83</v>
       </c>
       <c r="B15" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="B16" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B16" s="5">
-        <v>28</v>
+      <c r="B17" s="5">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -6437,13 +6559,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
+        <v>21</v>
+      </c>
+      <c r="B2" s="5">
         <v>20</v>
       </c>
-      <c r="B2" s="5">
-        <v>19</v>
-      </c>
       <c r="C2" s="5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="5">
         <v>4</v>

--- a/2018-01-excel/workshopFeedback.xlsx
+++ b/2018-01-excel/workshopFeedback.xlsx
@@ -20,9 +20,9 @@
     <sheet name="UsefulnessRatings" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlcn.WorksheetConnection_workshopFeedback.xlsxFeedbackForms1" hidden="1">FeedbackForms[]</definedName>
-    <definedName name="_xlcn.WorksheetConnection_workshopFeedback.xlsxUsefulnessRatings1" hidden="1">UsefulnessRatings[]</definedName>
-    <definedName name="_xlcn.WorksheetConnection_workshopFeedback.xlsxWorkshopStats1" hidden="1">WorkshopStats[]</definedName>
+    <definedName name="_xlcn.WorksheetConnection_workshopFeedback.xlsxFeedbackForms" hidden="1">FeedbackForms[]</definedName>
+    <definedName name="_xlcn.WorksheetConnection_workshopFeedback.xlsxUsefulnessRatings" hidden="1">UsefulnessRatings[]</definedName>
+    <definedName name="_xlcn.WorksheetConnection_workshopFeedback.xlsxWorkshopStats" hidden="1">WorkshopStats[]</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <pivotCaches>
@@ -64,7 +64,7 @@
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
         <x15:connection id="FeedbackForms">
-          <x15:rangePr sourceName="_xlcn.WorksheetConnection_workshopFeedback.xlsxFeedbackForms1"/>
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_workshopFeedback.xlsxFeedbackForms"/>
         </x15:connection>
       </ext>
     </extLst>
@@ -73,7 +73,7 @@
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
         <x15:connection id="UsefulnessRatings">
-          <x15:rangePr sourceName="_xlcn.WorksheetConnection_workshopFeedback.xlsxUsefulnessRatings1"/>
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_workshopFeedback.xlsxUsefulnessRatings"/>
         </x15:connection>
       </ext>
     </extLst>
@@ -82,7 +82,7 @@
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
         <x15:connection id="WorkshopStats">
-          <x15:rangePr sourceName="_xlcn.WorksheetConnection_workshopFeedback.xlsxWorkshopStats1"/>
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_workshopFeedback.xlsxWorkshopStats"/>
         </x15:connection>
       </ext>
     </extLst>
@@ -91,7 +91,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="95">
   <si>
     <t>Department</t>
   </si>
@@ -370,6 +370,12 @@
   </si>
   <si>
     <t>Very insightful presesntation.  I will just need to see if I can incorporate the information learned into my daily duties.</t>
+  </si>
+  <si>
+    <t>The pace of the class; Needed more time; I wish I knew in advance what we were learning as I feel it really didn't apply to my current position.</t>
+  </si>
+  <si>
+    <t>Great teacher; Very interesting.</t>
   </si>
 </sst>
 </file>
@@ -882,7 +888,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>23</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>3</c:v>
@@ -1230,7 +1236,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>6</c:v>
@@ -1637,7 +1643,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>21</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1743,7 +1749,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>9</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3755,7 +3761,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Dan Gowans" refreshedDate="43115.357317708331" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="30">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Dan Gowans" refreshedDate="43117.386917824071" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="31">
   <cacheSource type="worksheet">
     <worksheetSource name="FeedbackForms"/>
   </cacheSource>
@@ -3835,7 +3841,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="30">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="31">
   <r>
     <x v="0"/>
     <x v="0"/>
@@ -4154,6 +4160,20 @@
     <m/>
     <n v="1"/>
     <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="7"/>
+    <x v="0"/>
+    <n v="1"/>
+    <s v="Great teacher; Very interesting."/>
+    <s v="The pace of the class; Needed more time; I wish I knew in advance what we were learning as I feel it really didn't apply to my current position."/>
+    <n v="1"/>
+    <n v="0"/>
     <n v="1"/>
     <n v="0"/>
     <m/>
@@ -4624,13 +4644,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="FeedbackForms" displayName="FeedbackForms" ref="A1:L31" totalsRowShown="0">
-  <autoFilter ref="A1:L31"/>
-  <sortState ref="A2:L31">
-    <sortCondition ref="A2:A31"/>
-    <sortCondition ref="B2:B31"/>
-    <sortCondition ref="C2:C31"/>
-    <sortCondition ref="E2:E31"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="FeedbackForms" displayName="FeedbackForms" ref="A1:L32" totalsRowShown="0">
+  <autoFilter ref="A1:L32"/>
+  <sortState ref="A2:L32">
+    <sortCondition ref="A2:A32"/>
+    <sortCondition ref="B2:B32"/>
+    <sortCondition ref="C2:C32"/>
+    <sortCondition ref="E2:E32"/>
   </sortState>
   <tableColumns count="12">
     <tableColumn id="1" name="Workshop Date" dataDxfId="5"/>
@@ -5193,7 +5213,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -6041,7 +6061,10 @@
         <v>43111</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>3</v>
+      </c>
+      <c r="C25" t="s">
+        <v>54</v>
       </c>
       <c r="D25" t="s">
         <v>38</v>
@@ -6050,6 +6073,12 @@
         <f>_xlfn.IFNA(VLOOKUP(FeedbackForms[[#This Row],[Usefulness]],UsefulnessRatings[],2,FALSE),"")</f>
         <v>1</v>
       </c>
+      <c r="F25" t="s">
+        <v>94</v>
+      </c>
+      <c r="G25" t="s">
+        <v>93</v>
+      </c>
       <c r="H25" s="3">
         <v>1</v>
       </c>
@@ -6057,7 +6086,7 @@
         <v>0</v>
       </c>
       <c r="J25" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K25" s="3">
         <v>0</v>
@@ -6065,13 +6094,10 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>43112</v>
+        <v>43111</v>
       </c>
       <c r="B26" t="s">
-        <v>13</v>
-      </c>
-      <c r="C26" t="s">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="D26" t="s">
         <v>38</v>
@@ -6080,14 +6106,11 @@
         <f>_xlfn.IFNA(VLOOKUP(FeedbackForms[[#This Row],[Usefulness]],UsefulnessRatings[],2,FALSE),"")</f>
         <v>1</v>
       </c>
-      <c r="F26" t="s">
-        <v>82</v>
-      </c>
       <c r="H26" s="3">
         <v>1</v>
       </c>
       <c r="I26" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26" s="3">
         <v>0</v>
@@ -6104,7 +6127,7 @@
         <v>13</v>
       </c>
       <c r="C27" t="s">
-        <v>14</v>
+        <v>63</v>
       </c>
       <c r="D27" t="s">
         <v>38</v>
@@ -6114,7 +6137,7 @@
         <v>1</v>
       </c>
       <c r="F27" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="H27" s="3">
         <v>1</v>
@@ -6147,10 +6170,10 @@
         <v>1</v>
       </c>
       <c r="F28" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="H28" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" s="3">
         <v>1</v>
@@ -6170,23 +6193,23 @@
         <v>13</v>
       </c>
       <c r="C29" t="s">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="D29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E29" s="5">
         <f>_xlfn.IFNA(VLOOKUP(FeedbackForms[[#This Row],[Usefulness]],UsefulnessRatings[],2,FALSE),"")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F29" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="H29" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" s="3">
         <v>0</v>
@@ -6200,20 +6223,20 @@
         <v>43112</v>
       </c>
       <c r="B30" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C30" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="D30" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E30" s="5">
         <f>_xlfn.IFNA(VLOOKUP(FeedbackForms[[#This Row],[Usefulness]],UsefulnessRatings[],2,FALSE),"")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F30" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H30" s="3">
         <v>1</v>
@@ -6222,7 +6245,7 @@
         <v>0</v>
       </c>
       <c r="J30" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K30" s="3">
         <v>0</v>
@@ -6233,10 +6256,10 @@
         <v>43112</v>
       </c>
       <c r="B31" t="s">
-        <v>83</v>
+        <v>21</v>
       </c>
       <c r="C31" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="D31" t="s">
         <v>38</v>
@@ -6246,21 +6269,54 @@
         <v>1</v>
       </c>
       <c r="F31" t="s">
+        <v>91</v>
+      </c>
+      <c r="H31" s="3">
+        <v>1</v>
+      </c>
+      <c r="I31" s="3">
+        <v>0</v>
+      </c>
+      <c r="J31" s="3">
+        <v>1</v>
+      </c>
+      <c r="K31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>43112</v>
+      </c>
+      <c r="B32" t="s">
+        <v>83</v>
+      </c>
+      <c r="C32" t="s">
+        <v>84</v>
+      </c>
+      <c r="D32" t="s">
+        <v>38</v>
+      </c>
+      <c r="E32" s="5">
+        <f>_xlfn.IFNA(VLOOKUP(FeedbackForms[[#This Row],[Usefulness]],UsefulnessRatings[],2,FALSE),"")</f>
+        <v>1</v>
+      </c>
+      <c r="F32" t="s">
         <v>85</v>
       </c>
-      <c r="G31" t="s">
+      <c r="G32" t="s">
         <v>86</v>
       </c>
-      <c r="H31" s="3">
-        <v>1</v>
-      </c>
-      <c r="I31" s="3">
-        <v>1</v>
-      </c>
-      <c r="J31" s="3">
-        <v>0</v>
-      </c>
-      <c r="K31" s="3">
+      <c r="H32" s="3">
+        <v>1</v>
+      </c>
+      <c r="I32" s="3">
+        <v>1</v>
+      </c>
+      <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>0</v>
       </c>
     </row>
@@ -6293,7 +6349,7 @@
               <x14:cfIcon iconSet="3TrafficLights1" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>E2:E31</xm:sqref>
+          <xm:sqref>E2:E32</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -6336,7 +6392,7 @@
         <v>38</v>
       </c>
       <c r="B4" s="5">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -6360,7 +6416,7 @@
         <v>42</v>
       </c>
       <c r="B7" s="5">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -6470,7 +6526,7 @@
         <v>3</v>
       </c>
       <c r="B11" s="5">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -6478,7 +6534,7 @@
         <v>54</v>
       </c>
       <c r="B12" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -6518,7 +6574,7 @@
         <v>42</v>
       </c>
       <c r="B17" s="5">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -6559,13 +6615,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B2" s="5">
         <v>20</v>
       </c>
       <c r="C2" s="5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" s="5">
         <v>4</v>
